--- a/SchedulingData/static6/pso/scheduling1_9.xlsx
+++ b/SchedulingData/static6/pso/scheduling1_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>54.32</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>27.228</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>39.62</v>
+        <v>152.2</v>
       </c>
       <c r="E3" t="n">
-        <v>27.228</v>
+        <v>21.56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>64.34</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>25.736</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54.32</v>
+        <v>152.2</v>
       </c>
       <c r="D5" t="n">
-        <v>133.42</v>
+        <v>200.7</v>
       </c>
       <c r="E5" t="n">
-        <v>23.428</v>
+        <v>17.84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>133.42</v>
+        <v>200.7</v>
       </c>
       <c r="D6" t="n">
-        <v>186.32</v>
+        <v>281.24</v>
       </c>
       <c r="E6" t="n">
-        <v>19.768</v>
+        <v>13.416</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>77.2</v>
+        <v>88.12</v>
       </c>
       <c r="E7" t="n">
-        <v>25.92</v>
+        <v>24.848</v>
       </c>
     </row>
     <row r="8">
@@ -580,17 +580,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>77.2</v>
+        <v>88.12</v>
       </c>
       <c r="D8" t="n">
-        <v>118.74</v>
+        <v>146.36</v>
       </c>
       <c r="E8" t="n">
-        <v>22.896</v>
+        <v>21.624</v>
       </c>
     </row>
     <row r="9">
@@ -599,17 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>64.34</v>
+        <v>281.24</v>
       </c>
       <c r="D9" t="n">
-        <v>132.86</v>
+        <v>324.92</v>
       </c>
       <c r="E9" t="n">
-        <v>21.524</v>
+        <v>10.688</v>
       </c>
     </row>
     <row r="10">
@@ -618,17 +618,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>118.74</v>
+        <v>146.36</v>
       </c>
       <c r="D10" t="n">
-        <v>163.98</v>
+        <v>185.38</v>
       </c>
       <c r="E10" t="n">
-        <v>19.992</v>
+        <v>18.852</v>
       </c>
     </row>
     <row r="11">
@@ -637,17 +637,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>186.32</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>224.96</v>
+        <v>57.94</v>
       </c>
       <c r="E11" t="n">
-        <v>16.544</v>
+        <v>26.876</v>
       </c>
     </row>
     <row r="12">
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>69.04000000000001</v>
+        <v>128.9</v>
       </c>
       <c r="E12" t="n">
-        <v>25.776</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="13">
@@ -675,22 +675,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>39.62</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>123.54</v>
+        <v>59.04</v>
       </c>
       <c r="E13" t="n">
-        <v>22.956</v>
+        <v>25.776</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -698,51 +698,51 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>59.04</v>
       </c>
       <c r="D14" t="n">
-        <v>54.5</v>
+        <v>97.94</v>
       </c>
       <c r="E14" t="n">
-        <v>27.24</v>
+        <v>23.016</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>69.04000000000001</v>
+        <v>57.94</v>
       </c>
       <c r="D15" t="n">
-        <v>151.74</v>
+        <v>95.16</v>
       </c>
       <c r="E15" t="n">
-        <v>22.096</v>
+        <v>24.284</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>224.96</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>302.02</v>
+        <v>40</v>
       </c>
       <c r="E16" t="n">
-        <v>11.448</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="17">
@@ -751,93 +751,93 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>163.98</v>
+        <v>185.38</v>
       </c>
       <c r="D17" t="n">
-        <v>232.88</v>
+        <v>269.3</v>
       </c>
       <c r="E17" t="n">
-        <v>16.692</v>
+        <v>14.58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>151.74</v>
+        <v>95.16</v>
       </c>
       <c r="D18" t="n">
-        <v>223.98</v>
+        <v>149.92</v>
       </c>
       <c r="E18" t="n">
-        <v>18.972</v>
+        <v>19.448</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>232.88</v>
+        <v>97.94</v>
       </c>
       <c r="D19" t="n">
-        <v>277.38</v>
+        <v>144.08</v>
       </c>
       <c r="E19" t="n">
-        <v>14.372</v>
+        <v>19.532</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>54.5</v>
+        <v>144.08</v>
       </c>
       <c r="D20" t="n">
-        <v>106.2</v>
+        <v>214.88</v>
       </c>
       <c r="E20" t="n">
-        <v>23.7</v>
+        <v>14.072</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>302.02</v>
+        <v>324.92</v>
       </c>
       <c r="D21" t="n">
-        <v>368.06</v>
+        <v>382.06</v>
       </c>
       <c r="E21" t="n">
-        <v>7.444</v>
+        <v>7.104</v>
       </c>
     </row>
     <row r="22">
@@ -846,150 +846,150 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>223.98</v>
+        <v>128.9</v>
       </c>
       <c r="D22" t="n">
-        <v>282.14</v>
+        <v>203.64</v>
       </c>
       <c r="E22" t="n">
-        <v>15.276</v>
+        <v>17.536</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>368.06</v>
+        <v>203.64</v>
       </c>
       <c r="D23" t="n">
-        <v>443.6</v>
+        <v>247.92</v>
       </c>
       <c r="E23" t="n">
-        <v>3.96</v>
+        <v>14.728</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>106.2</v>
+        <v>149.92</v>
       </c>
       <c r="D24" t="n">
-        <v>177.7</v>
+        <v>184.04</v>
       </c>
       <c r="E24" t="n">
-        <v>20.14</v>
+        <v>16.676</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>123.54</v>
+        <v>40</v>
       </c>
       <c r="D25" t="n">
-        <v>188.88</v>
+        <v>94.3</v>
       </c>
       <c r="E25" t="n">
-        <v>18.532</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>132.86</v>
+        <v>214.88</v>
       </c>
       <c r="D26" t="n">
-        <v>184.94</v>
+        <v>277.14</v>
       </c>
       <c r="E26" t="n">
-        <v>17.936</v>
+        <v>8.976000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>188.88</v>
+        <v>184.04</v>
       </c>
       <c r="D27" t="n">
-        <v>251.68</v>
+        <v>232.3</v>
       </c>
       <c r="E27" t="n">
-        <v>14.892</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>443.6</v>
+        <v>94.3</v>
       </c>
       <c r="D28" t="n">
-        <v>483.08</v>
+        <v>141</v>
       </c>
       <c r="E28" t="n">
-        <v>1.152</v>
+        <v>19.36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>483.08</v>
+        <v>269.3</v>
       </c>
       <c r="D29" t="n">
-        <v>552.78</v>
+        <v>336.7</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="30">
@@ -998,93 +998,93 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>177.7</v>
+        <v>141</v>
       </c>
       <c r="D30" t="n">
-        <v>227.1</v>
+        <v>217.6</v>
       </c>
       <c r="E30" t="n">
-        <v>17.82</v>
+        <v>15.28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>184.94</v>
+        <v>217.6</v>
       </c>
       <c r="D31" t="n">
-        <v>238.34</v>
+        <v>291.6</v>
       </c>
       <c r="E31" t="n">
-        <v>14.216</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>251.68</v>
+        <v>382.06</v>
       </c>
       <c r="D32" t="n">
-        <v>293.8</v>
+        <v>440.84</v>
       </c>
       <c r="E32" t="n">
-        <v>12.3</v>
+        <v>3.856</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>238.34</v>
+        <v>247.92</v>
       </c>
       <c r="D33" t="n">
-        <v>296.58</v>
+        <v>324.98</v>
       </c>
       <c r="E33" t="n">
-        <v>10.992</v>
+        <v>9.632</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>277.38</v>
+        <v>232.3</v>
       </c>
       <c r="D34" t="n">
-        <v>349.28</v>
+        <v>274.58</v>
       </c>
       <c r="E34" t="n">
-        <v>9.811999999999999</v>
+        <v>9.391999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -1093,150 +1093,150 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>349.28</v>
+        <v>336.7</v>
       </c>
       <c r="D35" t="n">
-        <v>441.34</v>
+        <v>373.08</v>
       </c>
       <c r="E35" t="n">
-        <v>4.716</v>
+        <v>8.952</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>296.58</v>
+        <v>324.98</v>
       </c>
       <c r="D36" t="n">
-        <v>376.52</v>
+        <v>378.1</v>
       </c>
       <c r="E36" t="n">
-        <v>7.128</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>227.1</v>
+        <v>373.08</v>
       </c>
       <c r="D37" t="n">
-        <v>296.56</v>
+        <v>425.08</v>
       </c>
       <c r="E37" t="n">
-        <v>12.984</v>
+        <v>4.392</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>441.34</v>
+        <v>277.14</v>
       </c>
       <c r="D38" t="n">
-        <v>489.72</v>
+        <v>340.66</v>
       </c>
       <c r="E38" t="n">
-        <v>1.988</v>
+        <v>4.764</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>489.72</v>
+        <v>291.6</v>
       </c>
       <c r="D39" t="n">
-        <v>582.14</v>
+        <v>359.5</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>376.52</v>
+        <v>340.66</v>
       </c>
       <c r="D40" t="n">
-        <v>442.52</v>
+        <v>389.86</v>
       </c>
       <c r="E40" t="n">
-        <v>1.668</v>
+        <v>2.444</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>442.52</v>
+        <v>359.5</v>
       </c>
       <c r="D41" t="n">
-        <v>515.98</v>
+        <v>409.74</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>3.416</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>296.56</v>
+        <v>425.08</v>
       </c>
       <c r="D42" t="n">
-        <v>369.2</v>
+        <v>520.8200000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>8.84</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="43">
@@ -1245,17 +1245,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>582.14</v>
+        <v>520.8200000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>619.22</v>
+        <v>621.34</v>
       </c>
       <c r="E43" t="n">
-        <v>27.492</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
@@ -1264,17 +1264,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>282.14</v>
+        <v>378.1</v>
       </c>
       <c r="D44" t="n">
-        <v>349.96</v>
+        <v>455.6</v>
       </c>
       <c r="E44" t="n">
-        <v>10.124</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="45">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>552.78</v>
+        <v>274.58</v>
       </c>
       <c r="D45" t="n">
-        <v>621.66</v>
+        <v>333.64</v>
       </c>
       <c r="E45" t="n">
-        <v>26.752</v>
+        <v>5.596</v>
       </c>
     </row>
     <row r="46">
@@ -1302,17 +1302,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>349.96</v>
+        <v>455.6</v>
       </c>
       <c r="D46" t="n">
-        <v>409.16</v>
+        <v>517.04</v>
       </c>
       <c r="E46" t="n">
-        <v>4.844</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
@@ -1321,55 +1321,55 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>409.16</v>
+        <v>517.04</v>
       </c>
       <c r="D47" t="n">
-        <v>478.32</v>
+        <v>591.38</v>
       </c>
       <c r="E47" t="n">
-        <v>1.048</v>
+        <v>25.736</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>478.32</v>
+        <v>409.74</v>
       </c>
       <c r="D48" t="n">
-        <v>563.02</v>
+        <v>458.94</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>1.096</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>515.98</v>
+        <v>458.94</v>
       </c>
       <c r="D49" t="n">
-        <v>593.08</v>
+        <v>528.65</v>
       </c>
       <c r="E49" t="n">
-        <v>24.96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
@@ -1378,74 +1378,93 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>293.8</v>
+        <v>389.86</v>
       </c>
       <c r="D50" t="n">
-        <v>360.94</v>
+        <v>501.27</v>
       </c>
       <c r="E50" t="n">
-        <v>8.715999999999999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>619.22</v>
+        <v>501.27</v>
       </c>
       <c r="D51" t="n">
-        <v>661.72</v>
+        <v>570.21</v>
       </c>
       <c r="E51" t="n">
-        <v>24.372</v>
+        <v>26.776</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>563.02</v>
+        <v>333.64</v>
       </c>
       <c r="D52" t="n">
-        <v>637.92</v>
+        <v>419.78</v>
       </c>
       <c r="E52" t="n">
-        <v>25.2</v>
+        <v>2.572</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>360.94</v>
+        <v>440.84</v>
       </c>
       <c r="D53" t="n">
-        <v>399.26</v>
+        <v>529.53</v>
       </c>
       <c r="E53" t="n">
-        <v>5.524</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>pond42</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>529.53</v>
+      </c>
+      <c r="D54" t="n">
+        <v>607.37</v>
+      </c>
+      <c r="E54" t="n">
+        <v>25.856</v>
       </c>
     </row>
   </sheetData>
